--- a/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,37%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 9,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 9,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 13,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,03; 22,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,36; 69,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 54,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,5; 70,72</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 6,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 5,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 14,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 21,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,08; 18,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,8; 22,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 30,07</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 10,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 7,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; 3,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,85; 2,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 28,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,2; 20,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,47; 8,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; 4,79</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 3,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 4,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 4,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 8,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 11,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 14,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 14,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 18,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,04</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>42,85%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 13,82</t>
+          <t>5,06; 13,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,5; 70,72</t>
+          <t>20,19; 69,24</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>9,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>22,79%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 14,28</t>
+          <t>0,8; 28,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 30,07</t>
+          <t>1,58; 90,38</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>-4,14%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 2,7</t>
+          <t>-7,75; 3,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 4,79</t>
+          <t>-12,44; 5,32</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,27</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,72</t>
+          <t>-0,39; 18,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 18,63</t>
+          <t>-0,63; 51,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,32</t>
+          <t>-4,05; 3,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,09; 9,13</t>
+          <t>2,46; 9,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 9,83</t>
+          <t>-0,89; 9,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 13,32</t>
+          <t>5,14; 13,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 22,51</t>
+          <t>-21,27; 23,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 69,28</t>
+          <t>13,96; 70,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 54,59</t>
+          <t>-3,9; 53,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,19; 69,24</t>
+          <t>20,02; 72,29</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,29</t>
+          <t>-0,32; 6,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 5,88</t>
+          <t>-0,85; 5,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 7,54</t>
+          <t>1,07; 7,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 28,64</t>
+          <t>0,61; 26,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 21,69</t>
+          <t>-1,17; 23,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 18,71</t>
+          <t>-2,38; 18,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 22,86</t>
+          <t>2,94; 22,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 90,38</t>
+          <t>1,04; 77,79</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 10,18</t>
+          <t>-4,55; 9,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 7,7</t>
+          <t>-6,82; 6,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 3,62</t>
+          <t>-8,95; 4,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 3,02</t>
+          <t>-7,51; 2,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 28,18</t>
+          <t>-10,51; 24,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 20,26</t>
+          <t>-15,53; 18,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 8,04</t>
+          <t>-17,28; 10,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 5,32</t>
+          <t>-12,16; 5,29</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,02</t>
+          <t>-1,81; 3,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,11</t>
+          <t>-0,88; 3,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,96</t>
+          <t>-0,58; 5,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 18,69</t>
+          <t>-0,14; 19,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 11,13</t>
+          <t>-6,03; 11,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,54</t>
+          <t>-2,93; 13,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 14,71</t>
+          <t>-1,53; 15,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 51,73</t>
+          <t>-0,43; 53,47</t>
         </is>
       </c>
     </row>
